--- a/Resultados/RESULTADOS_4.xlsx
+++ b/Resultados/RESULTADOS_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="E2" t="n">
-        <v>47.78</v>
+        <v>50.98</v>
       </c>
       <c r="F2" t="n">
         <v>42.5</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="E3" t="n">
-        <v>36.83</v>
+        <v>38.03</v>
       </c>
       <c r="F3" t="n">
         <v>33.55</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="E4" t="n">
-        <v>34.3</v>
+        <v>35.02</v>
       </c>
       <c r="F4" t="n">
         <v>31.5</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="E5" t="n">
-        <v>33.43</v>
+        <v>33.94</v>
       </c>
       <c r="F5" t="n">
         <v>30.83</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="E6" t="n">
-        <v>32.58</v>
+        <v>32.96</v>
       </c>
       <c r="F6" t="n">
         <v>30.12</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="E7" t="n">
-        <v>32.22</v>
+        <v>32.46</v>
       </c>
       <c r="F7" t="n">
         <v>29.78</v>
@@ -1068,7 +1068,7 @@
         <v>3.11</v>
       </c>
       <c r="E8" t="n">
-        <v>32.15</v>
+        <v>32.17</v>
       </c>
       <c r="F8" t="n">
         <v>29.56</v>
@@ -1213,88 +1213,6 @@
         <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32.09</v>
-      </c>
-      <c r="F10" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>70.79000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I10" t="n">
-        <v>25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>117.66</v>
-      </c>
-      <c r="K10" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="L10" t="n">
-        <v>9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14745.39</v>
-      </c>
-      <c r="P10" t="n">
-        <v>221.62</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R10" t="n">
-        <v>134.35</v>
-      </c>
-      <c r="S10" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T10" t="n">
-        <v>16763.74</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X10" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="n">
         <v>10</v>
       </c>
     </row>
